--- a/excel/TestSuiteKey.xlsx
+++ b/excel/TestSuiteKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A42443-BDF1-4CE7-BA6D-6FE27E242BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E6EFC-7787-4080-92D2-1BB3AF3EF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="883" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="25950" yWindow="7155" windowWidth="8850" windowHeight="4830" tabRatio="883" firstSheet="13" activeTab="14" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -102,27 +102,16 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> type: check
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alt_cells:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - F10
+          <t xml:space="preserve"> type: check</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -1150,7 +1139,7 @@
  score: 1.5
  type: formula
  prereq:
-  - B9
+  - B8
 </t>
         </r>
       </text>
@@ -3222,7 +3211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
   <si>
     <t>Number</t>
   </si>
@@ -3459,6 +3448,10 @@
   </si>
   <si>
     <t>At least try something.</t>
+  </si>
+  <si>
+    <t>NOTE: Values in columns B and C are here for understanding only.
+Actual evaluation of formula given in column A happens on the submission cols B&amp;C</t>
   </si>
 </sst>
 </file>
@@ -3549,9 +3542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3869,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B2A36-CAF8-2349-917C-6D8074132DA3}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4102,7 +4098,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4114,7 +4110,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>B2+C2</f>
+        <f t="shared" ref="A2:A9" si="0">B2+C2</f>
         <v>300</v>
       </c>
       <c r="B2">
@@ -4129,7 +4125,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B3">
@@ -4144,7 +4140,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B4">
@@ -4159,7 +4155,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B5">
@@ -4174,7 +4170,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B6">
@@ -4189,7 +4185,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B7">
@@ -4204,7 +4200,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B8">
@@ -4219,7 +4215,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B9">
@@ -4355,7 +4351,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4547,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2DD034-B648-46D5-BADB-A1FE81998501}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4958,7 +4954,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5166,7 +5162,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5414,7 +5410,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5657,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5812,6 +5808,11 @@
         <v>8888</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/excel/TestSuiteKey.xlsx
+++ b/excel/TestSuiteKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E25C7-A197-43D1-9AEB-614810D8F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B546F-DF95-4D85-BC7F-90A57694B65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7008" yWindow="7032" windowWidth="8856" windowHeight="4836" tabRatio="883" firstSheet="4" activeTab="5" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="37995" yWindow="9225" windowWidth="8850" windowHeight="4830" tabRatio="883" firstSheet="13" activeTab="16" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -3400,12 +3400,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>Sheetname</t>
   </si>
   <si>
     <t>Constant Samples</t>
@@ -3647,6 +3644,12 @@
   </si>
   <si>
     <t>A12</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>min-work</t>
   </si>
 </sst>
 </file>
@@ -4061,7 +4064,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4074,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4088,13 +4091,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4102,13 +4105,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4116,13 +4119,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4130,13 +4133,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4144,13 +4147,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4158,13 +4161,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4172,13 +4175,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4186,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4223,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4234,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4242,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4250,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4258,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4266,7 +4269,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4274,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4282,7 +4285,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4290,7 +4293,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4298,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4306,7 +4309,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4314,7 +4317,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4339,29 +4342,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <f>B2 / 10</f>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f xml:space="preserve">  ROUNDUP(B2 / 100, 0)</f>
@@ -4379,7 +4382,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -4387,7 +4390,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f xml:space="preserve"> B6 / 1000</f>
@@ -4396,7 +4399,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <f>B6 * 3.28084</f>
@@ -4405,14 +4408,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>B6 * 39.3701</f>
         <v>39370.1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4423,7 +4426,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <f>B2 / 1000</f>
@@ -4432,7 +4435,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <f>SUM(B2:B4)</f>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <f>SUM(B2:B4) + 2</f>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <f>B2 / 5</f>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <f>B2 / 10</f>
@@ -4488,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4496,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4504,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4512,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4520,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4528,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4536,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4544,7 +4547,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4552,7 +4555,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4573,7 +4576,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4588,7 +4591,7 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,7 +4606,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4618,7 +4621,7 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4633,7 +4636,7 @@
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4648,7 +4651,7 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,7 +4666,7 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4678,7 +4681,7 @@
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4693,7 +4696,7 @@
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4722,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4738,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4777,29 +4780,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <f>B2 / 10</f>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4816,19 +4819,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <f xml:space="preserve">  ROUNDUP(B2 / 100, B4)</f>
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -4836,7 +4839,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <f xml:space="preserve"> B7 / 1000</f>
@@ -4845,26 +4848,26 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <f>B7 * 3.28084</f>
         <v>3280.84</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <f>B7 * 39.3701</f>
         <v>39370.1</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4875,7 +4878,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f>B7 * 42</f>
@@ -4903,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4911,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4919,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4927,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4935,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4943,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4951,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4959,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4975,7 +4978,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4988,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9897689-B004-4F94-886D-BEFD12E23EE5}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5000,29 +5003,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <f>B2 / 10</f>
@@ -5031,7 +5034,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f xml:space="preserve">  ROUNDUP(B2 / 100, 0)</f>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -5048,7 +5051,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f xml:space="preserve"> B6 / 1000</f>
@@ -5057,26 +5060,26 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <f>B6 * 3.28084</f>
         <v>3280.84</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>B6 * 39.3701</f>
         <v>39370.1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5087,7 +5090,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <f>B11 / 10</f>
@@ -5114,7 +5117,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5124,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5132,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5140,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5148,7 +5151,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5164,7 +5167,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5172,7 +5175,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5180,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5188,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5196,7 +5199,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5236,7 +5239,7 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5251,7 +5254,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,7 +5269,7 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5281,7 +5284,7 @@
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5296,7 +5299,7 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5311,7 +5314,7 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,7 +5329,7 @@
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5341,7 +5344,7 @@
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5350,7 +5353,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -5364,7 +5367,7 @@
     </row>
     <row r="15" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5399,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5410,7 +5413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5418,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5426,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5434,7 +5437,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5442,7 +5445,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5450,7 +5453,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5458,7 +5461,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5466,7 +5469,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5495,29 +5498,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <f>B2 / 10</f>
@@ -5526,7 +5529,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f>ROUNDUP(B2 / 100, 0)</f>
@@ -5535,7 +5538,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1000</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f>B6 / 1000</f>
@@ -5552,26 +5555,26 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f>B6 * 3.28084</f>
         <v>3280.84</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f>B6 * 39.3701</f>
         <v>39370.1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5582,7 +5585,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B4)</f>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <f>SUM(B2:B4) + 2</f>
@@ -5600,7 +5603,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <f>SUM(B2:B4)</f>
@@ -5622,7 +5625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -5633,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5641,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5649,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5657,7 +5660,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5665,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5673,7 +5676,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5681,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5689,7 +5692,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5697,7 +5700,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5705,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5713,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5738,7 +5741,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5909,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +5952,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +5960,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +5968,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +5976,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +5984,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6007,29 +6010,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <f>B2 / 10</f>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f xml:space="preserve">  ROUNDUP(B2 / 100, 0)</f>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f xml:space="preserve"> B6 / 1000</f>
@@ -6064,26 +6067,26 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <f>B6 * 3.28084</f>
         <v>3280.84</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>B6 * 39.3701</f>
         <v>39370.1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6094,7 +6097,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -6102,7 +6105,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <f>B11 / 10</f>

--- a/excel/TestSuiteKey.xlsx
+++ b/excel/TestSuiteKey.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E25C7-A197-43D1-9AEB-614810D8F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12589531-A2B2-4430-BA8A-2963F7624FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7008" yWindow="7032" windowWidth="8856" windowHeight="4836" tabRatio="883" firstSheet="4" activeTab="5" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
-    <sheet name="Relative Samples_CheckOrder" sheetId="14" r:id="rId2"/>
-    <sheet name="Relative Samples" sheetId="15" r:id="rId3"/>
-    <sheet name="SoftFormula Samples_CheckOrder" sheetId="17" r:id="rId4"/>
-    <sheet name="SoftFormula Samples" sheetId="16" r:id="rId5"/>
-    <sheet name="Check Samples_CheckOrder" sheetId="9" r:id="rId6"/>
-    <sheet name="Check Samples" sheetId="8" r:id="rId7"/>
+    <sheet name="Check Samples_CheckOrder" sheetId="9" r:id="rId2"/>
+    <sheet name="Check Samples" sheetId="8" r:id="rId3"/>
+    <sheet name="Relative Samples_CheckOrder" sheetId="14" r:id="rId4"/>
+    <sheet name="Relative Samples" sheetId="15" r:id="rId5"/>
+    <sheet name="SoftFormula Samples_CheckOrder" sheetId="17" r:id="rId6"/>
+    <sheet name="SoftFormula Samples" sheetId="16" r:id="rId7"/>
     <sheet name="Constant Samples_CheckOrder" sheetId="5" r:id="rId8"/>
     <sheet name="Constant Samples" sheetId="2" r:id="rId9"/>
     <sheet name="Formula Samples_CheckOrder" sheetId="6" r:id="rId10"/>
@@ -55,13 +55,14 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1383BC69-8C50-784B-BFC3-6F5B3FBA4BD5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{B5B6D137-43B2-4F88-AF49-5EDFEEA348CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -70,15 +71,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -87,17 +90,20 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 5</t>
         </r>
       </text>
     </comment>
@@ -108,6 +114,7 @@
             <sz val="18"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -116,15 +123,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -133,27 +142,36 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{22A2E076-4C02-4B49-A522-36472950712A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.1
+ result: F3
+ prereq:
+  - A2
+alt_cells:
+ - G3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{AD98A11C-D260-8649-A1A6-D1F4EEBD5E72}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -162,15 +180,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -179,36 +199,31 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{92A0F7C2-1E9D-8145-B4B7-0026CEA5BAE1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{B86810BB-68D7-9940-810E-3A50C3AFF402}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -217,15 +232,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -234,53 +251,32 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">alt_cells:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> - F10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{21E10097-F105-4910-9852-15EA4D4CC413}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.1
+ result: F5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{05EC7FC9-5F3E-8747-B8FD-560186C0242B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -289,15 +285,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -306,29 +304,115 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 0.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - A4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{BB1EA8A9-F9B0-4A61-91D8-90E577EFA13D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.1
+ result: F8
  prereq:
   - A4</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{75E8596E-9F34-4913-BBC7-82DD5FAD86EF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{6015E97D-9594-43CD-8AFE-B67BE9AFD086}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -337,15 +421,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -354,78 +440,34 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
- prereq:
-  - A3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{77197EAB-6207-4E65-9203-FD401BCC3F35}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: -1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
- grading: negative
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.1
+ result: F9
  prereq:
   - A5</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{30AF0434-BDB3-43BD-9E8F-A8179133054E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E1687F62-14B6-4623-86ED-99BB2314F714}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -434,83 +476,146 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: -1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
- grading: negative
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 5
+ result: F10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{01D2990A-8732-4C87-B2CF-A811680E2AC7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{CBF433D6-8CCD-48B7-9425-AE3F1D357CB9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ delta: 0.1
  prereq:
-  - A3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7B5C625D-8CE9-4640-8FCC-8F3C47D8E7DB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
+  - A5</t>
         </r>
       </text>
     </comment>
@@ -521,159 +626,465 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D253C392-CAC3-46F9-9F13-CBF5BDECCC54}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8D5FB1B4-1AA7-4489-8DA0-AFFC3CA85D26}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{08B199C4-7ED3-4E60-AF4F-832013AD3D65}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{11598048-B952-4D84-AB1A-212365CEDD74}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{1CE92E4A-4805-46A8-A5BD-F486D39ABC9A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
- delta: 0.26
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{6A10C734-0D05-4708-9586-78B13107CAA0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-alt_cells:
- - C10
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{40A82EA7-DAFA-4D05-8C67-672399576873}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E7DA26D1-C2D9-4918-BE39-B050BFDE7326}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{280EE453-B9B4-4399-8D2D-E3F070603BFF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1383BC69-8C50-784B-BFC3-6F5B3FBA4BD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{1453B0C4-5752-114C-87AA-DA9334CCCE20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{22A2E076-4C02-4B49-A522-36472950712A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{92A0F7C2-1E9D-8145-B4B7-0026CEA5BAE1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> - F10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{21E10097-F105-4910-9852-15EA4D4CC413}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ prereq:
+  - A4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{75E8596E-9F34-4913-BBC7-82DD5FAD86EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ prereq:
+  - A3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{77197EAB-6207-4E65-9203-FD401BCC3F35}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ grading: negative
+ prereq:
+  - A5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{30AF0434-BDB3-43BD-9E8F-A8179133054E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ grading: negative
+ prereq:
+  - A3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7B5C625D-8CE9-4640-8FCC-8F3C47D8E7DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
         </r>
       </text>
     </comment>
@@ -684,570 +1095,159 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Microsoft Office User</author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1383BC69-8C50-784B-BFC3-6F5B3FBA4BD5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{1453B0C4-5752-114C-87AA-DA9334CCCE20}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.1
- result: F3
- prereq:
-  - A2
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D253C392-CAC3-46F9-9F13-CBF5BDECCC54}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 1.5
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8D5FB1B4-1AA7-4489-8DA0-AFFC3CA85D26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 1.5
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{08B199C4-7ED3-4E60-AF4F-832013AD3D65}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 1
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{11598048-B952-4D84-AB1A-212365CEDD74}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 1
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{1CE92E4A-4805-46A8-A5BD-F486D39ABC9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 1.5
+ type: soft_formula
+ delta: 0.26
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{6A10C734-0D05-4708-9586-78B13107CAA0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 1.5
+ type: soft_formula
 alt_cells:
- - G3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{AD98A11C-D260-8649-A1A6-D1F4EEBD5E72}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{B86810BB-68D7-9940-810E-3A50C3AFF402}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.1
- result: F5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{05EC7FC9-5F3E-8747-B8FD-560186C0242B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 0.5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> prereq:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - A4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{BB1EA8A9-F9B0-4A61-91D8-90E577EFA13D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.1
- result: F8
- prereq:
-  - A4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{6015E97D-9594-43CD-8AFE-B67BE9AFD086}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.1
- result: F9
- prereq:
-  - A5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E1687F62-14B6-4623-86ED-99BB2314F714}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 5
- result: F10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{01D2990A-8732-4C87-B2CF-A811680E2AC7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{CBF433D6-8CCD-48B7-9425-AE3F1D357CB9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: check
- delta: 0.1
- prereq:
-  - A5</t>
+ - C10
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{40A82EA7-DAFA-4D05-8C67-672399576873}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rubric:
+ score: 2
+ type: soft_formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E7DA26D1-C2D9-4918-BE39-B050BFDE7326}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rubric:
+ score: 2
+ type: soft_formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{280EE453-B9B4-4399-8D2D-E3F070603BFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rubric:
+ score: 2
+ type: soft_formula</t>
         </r>
       </text>
     </comment>
@@ -3400,7 +3400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="104">
   <si>
     <t>Number</t>
   </si>
@@ -3647,6 +3647,72 @@
   </si>
   <si>
     <t>A12</t>
+  </si>
+  <si>
+    <t>Test-Name</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>Expected-Result</t>
+  </si>
+  <si>
+    <t>Failure-Message</t>
+  </si>
+  <si>
+    <t>I dunno</t>
+  </si>
+  <si>
+    <t>Why</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Failing</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
@@ -4058,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B2A36-CAF8-2349-917C-6D8074132DA3}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4069,7 +4135,7 @@
     <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4097,7 +4163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4111,87 +4177,87 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="C5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="C7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="C9">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5110,6 +5176,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <f>B2&gt;C2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="b">
+        <f>J2&gt;K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>STDEV(B3:B7)</f>
+        <v>3.5637059362410923</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3.5637059359999999</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>B4+C4</f>
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>B5+C5</f>
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>B6/C6</f>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>B8+C8</f>
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>B9+C9</f>
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="b">
+        <f>B10&gt;C10</f>
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>B11+C11</f>
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>B12+C12</f>
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3" formulaRange="1"/>
+    <ignoredError sqref="A10" formula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C438D0-7759-4CC5-97B1-26C21A13DC4C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5205,7 +5678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -5373,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83D290E-9ED5-490F-8FA5-D7E745EE5395}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5480,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B6745-E38C-48B8-BF02-AA99A147A5ED}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -5614,282 +6087,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
-        <f>B2&gt;C2</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>STDEV(B3:B7)</f>
-        <v>3.5637059362410923</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3.5637059359999999</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>B4+C4</f>
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>B5+C5</f>
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>B6/C6</f>
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>B8+C8</f>
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>B9+C9</f>
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="b">
-        <f>B10&gt;C10</f>
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>B11+C11</f>
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>B12+C12</f>
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A3" formulaRange="1"/>
-    <ignoredError sqref="A10" formula="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/excel/TestSuiteKey.xlsx
+++ b/excel/TestSuiteKey.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0578A522-DE92-454A-8B2F-FB6810469CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF9B7F-964E-4918-8550-8AE4F2446D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="883" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="883" firstSheet="10" activeTab="16" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
     <sheet name="Check Samples_CheckOrder" sheetId="9" r:id="rId2"/>
     <sheet name="Check Samples" sheetId="8" r:id="rId3"/>
-    <sheet name="Relative Samples_CheckOrder" sheetId="14" r:id="rId4"/>
-    <sheet name="Relative Samples" sheetId="15" r:id="rId5"/>
-    <sheet name="SoftFormula Samples_CheckOrder" sheetId="17" r:id="rId6"/>
-    <sheet name="SoftFormula Samples" sheetId="16" r:id="rId7"/>
-    <sheet name="Constant Samples_CheckOrder" sheetId="5" r:id="rId8"/>
-    <sheet name="Constant Samples" sheetId="2" r:id="rId9"/>
+    <sheet name="Constant Samples_CheckOrder" sheetId="5" r:id="rId4"/>
+    <sheet name="Constant Samples" sheetId="2" r:id="rId5"/>
+    <sheet name="Relative Samples_CheckOrder" sheetId="14" r:id="rId6"/>
+    <sheet name="Relative Samples" sheetId="15" r:id="rId7"/>
+    <sheet name="SoftFormula Samples_CheckOrder" sheetId="17" r:id="rId8"/>
+    <sheet name="SoftFormula Samples" sheetId="16" r:id="rId9"/>
     <sheet name="Formula Samples_CheckOrder" sheetId="6" r:id="rId10"/>
     <sheet name="Formula Samples" sheetId="3" r:id="rId11"/>
     <sheet name="RelativeF Samples_CheckOrder" sheetId="10" r:id="rId12"/>
@@ -297,7 +297,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> score: 1</t>
+          <t xml:space="preserve"> score: 0</t>
         </r>
         <r>
           <rPr>
@@ -317,36 +317,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: check
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 0.5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> prereq:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - A4</t>
+ delta: 0.5
+ prereq:
+  - A4</t>
         </r>
       </text>
     </comment>
@@ -626,465 +599,406 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Ricardo Pramana Suranta</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1383BC69-8C50-784B-BFC3-6F5B3FBA4BD5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D71AC230-CA0F-6147-8161-BEFBFBB9A788}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BADCDE6D-B1E6-6247-B944-057D3FE92399}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{33D1B7E4-F111-DC48-ADEC-ADBF569A2F9F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>rubric:</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{1453B0C4-5752-114C-87AA-DA9334CCCE20}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{22A2E076-4C02-4B49-A522-36472950712A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{92A0F7C2-1E9D-8145-B4B7-0026CEA5BAE1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 0.1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{382D2601-E60D-AF41-9112-5E34159E9F09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: 0
+ type: constant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{7B36EB09-5FE5-7F4C-90C3-F4B2560DAA48}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{D0CAA4B1-7F8C-8545-8917-42FD070A0506}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 0.26
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{D0987F27-B842-E648-8826-7FE8512871FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">alt_cells:
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> - F10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{21E10097-F105-4910-9852-15EA4D4CC413}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
- prereq:
-  - A4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{75E8596E-9F34-4913-BBC7-82DD5FAD86EF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
- prereq:
-  - A3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{77197EAB-6207-4E65-9203-FD401BCC3F35}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: -1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - C10
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{51C373DF-F5AB-4272-A02B-423E510B880F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:
+ score: -1
+ type: constant
+ grading: negative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{BBFA22A5-9906-4EDC-BE19-7D28660A7FC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+ score: -1
+ type: constant
  grading: negative
- prereq:
-  - A5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{30AF0434-BDB3-43BD-9E8F-A8179133054E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: -1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative
- grading: negative
- prereq:
-  - A3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7B5C625D-8CE9-4640-8FCC-8F3C47D8E7DB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> type: relative</t>
+</t>
         </r>
       </text>
     </comment>
@@ -1095,159 +1009,465 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D253C392-CAC3-46F9-9F13-CBF5BDECCC54}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8D5FB1B4-1AA7-4489-8DA0-AFFC3CA85D26}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{08B199C4-7ED3-4E60-AF4F-832013AD3D65}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{11598048-B952-4D84-AB1A-212365CEDD74}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1
- type: soft_formula
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{1CE92E4A-4805-46A8-A5BD-F486D39ABC9A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
- delta: 0.26
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{6A10C734-0D05-4708-9586-78B13107CAA0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-alt_cells:
- - C10
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{40A82EA7-DAFA-4D05-8C67-672399576873}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E7DA26D1-C2D9-4918-BE39-B050BFDE7326}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{280EE453-B9B4-4399-8D2D-E3F070603BFF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1383BC69-8C50-784B-BFC3-6F5B3FBA4BD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{1453B0C4-5752-114C-87AA-DA9334CCCE20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{22A2E076-4C02-4B49-A522-36472950712A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{92A0F7C2-1E9D-8145-B4B7-0026CEA5BAE1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> - F10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{21E10097-F105-4910-9852-15EA4D4CC413}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ prereq:
+  - A4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{75E8596E-9F34-4913-BBC7-82DD5FAD86EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ prereq:
+  - A3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{77197EAB-6207-4E65-9203-FD401BCC3F35}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ grading: negative
+ prereq:
+  - A5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{30AF0434-BDB3-43BD-9E8F-A8179133054E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+ grading: negative
+ prereq:
+  - A3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7B5C625D-8CE9-4640-8FCC-8F3C47D8E7DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
         </r>
       </text>
     </comment>
@@ -1258,434 +1478,159 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ricardo Pramana Suranta</author>
-    <author>Microsoft Office User</author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D71AC230-CA0F-6147-8161-BEFBFBB9A788}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D253C392-CAC3-46F9-9F13-CBF5BDECCC54}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BADCDE6D-B1E6-6247-B944-057D3FE92399}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+ score: 1.5
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8D5FB1B4-1AA7-4489-8DA0-AFFC3CA85D26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1.5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{33D1B7E4-F111-DC48-ADEC-ADBF569A2F9F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="4"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="4"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 0.1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> prereq:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - B2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - B3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{382D2601-E60D-AF41-9112-5E34159E9F09}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+ score: 1.5
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{08B199C4-7ED3-4E60-AF4F-832013AD3D65}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{7B36EB09-5FE5-7F4C-90C3-F4B2560DAA48}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+ score: 1
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{11598048-B952-4D84-AB1A-212365CEDD74}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> prereq:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - B6</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{D0CAA4B1-7F8C-8545-8917-42FD070A0506}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+ score: 1
+ type: soft_formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{1CE92E4A-4805-46A8-A5BD-F486D39ABC9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1.5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 0.26
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> prereq:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - B7
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{D0987F27-B842-E648-8826-7FE8512871FF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+ score: 1.5
+ type: soft_formula
+ delta: 0.26
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{6A10C734-0D05-4708-9586-78B13107CAA0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1.5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: constant
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alt_cells:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - C10
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{51C373DF-F5AB-4272-A02B-423E510B880F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+ score: 1.5
+ type: soft_formula
+alt_cells:
+ - C10
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{40A82EA7-DAFA-4D05-8C67-672399576873}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>rubric:
- score: -1
- type: constant
- grading: negative</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{BBFA22A5-9906-4EDC-BE19-7D28660A7FC8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
- score: -1
- type: constant
- grading: negative
-</t>
+ score: 2
+ type: soft_formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E7DA26D1-C2D9-4918-BE39-B050BFDE7326}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rubric:
+ score: 0
+ type: soft_formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{280EE453-B9B4-4399-8D2D-E3F070603BFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rubric:
+ score: 2
+ type: soft_formula</t>
         </r>
       </text>
     </comment>
@@ -1974,27 +1919,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: formula</t>
+          <t>rubric:
+ score: 0
+ type: formula</t>
         </r>
       </text>
     </comment>
@@ -2375,7 +2302,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> score: 1</t>
+          <t xml:space="preserve"> score: 0</t>
         </r>
         <r>
           <rPr>
@@ -2395,36 +2322,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative_f
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> delta: 5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> prereq:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  - A2</t>
+ delta: 5
+ prereq:
+  - A2</t>
         </r>
       </text>
     </comment>
@@ -2750,86 +2650,14 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1.5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: test
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">test_cases:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> default_test:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  output: 3280.84
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  delta: 0.26
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  input:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   B7: 1000
+ score: 0
+ type: test
+test_cases:
+ default_test:
+  output: 3280.84
+  delta: 0.26
+  input:
+   B7: 1000
 </t>
         </r>
       </text>
@@ -4129,16 +3957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B2A36-CAF8-2349-917C-6D8074132DA3}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +3980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4166,7 +3994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4180,7 +4008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4194,7 +4022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4208,7 +4036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4222,7 +4050,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4236,7 +4064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4250,7 +4078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4277,9 +4105,9 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4287,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4298,7 +4126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4306,7 +4134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4314,7 +4142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4322,7 +4150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4330,7 +4158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4338,7 +4166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4346,7 +4174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4354,7 +4182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4362,7 +4190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4370,7 +4198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4378,7 +4206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4397,16 +4225,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4428,7 +4256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4437,7 +4265,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4454,7 +4282,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4463,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4472,7 +4300,7 @@
         <v>3280.84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4484,13 +4312,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>B6 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -4499,7 +4327,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4508,7 +4336,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4517,7 +4345,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4526,7 +4354,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -4550,9 +4378,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4568,7 +4396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4576,7 +4404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4584,7 +4412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4592,7 +4420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4600,7 +4428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4608,7 +4436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4616,7 +4444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4635,17 +4463,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A9" si="0">B2+C2</f>
         <v>300</v>
@@ -4660,7 +4488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4675,7 +4503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4690,7 +4518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4705,7 +4533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4720,7 +4548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4735,7 +4563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4750,7 +4578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -4765,7 +4593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>8888</v>
       </c>
@@ -4784,9 +4612,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4794,7 +4622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4802,7 +4630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4810,7 +4638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4818,7 +4646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4836,15 +4664,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4866,7 +4694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4875,7 +4703,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -4883,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4895,7 +4723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4903,7 +4731,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4912,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4924,7 +4752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4936,13 +4764,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>B7 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4965,9 +4793,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4983,7 +4811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4991,7 +4819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4999,7 +4827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5007,7 +4835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5015,7 +4843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5023,7 +4851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5031,7 +4859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5039,7 +4867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5057,17 +4885,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9897689-B004-4F94-886D-BEFD12E23EE5}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.296875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5078,7 +4906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +4917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5098,7 +4926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5107,7 +4935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5115,7 +4943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5124,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5136,7 +4964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5148,13 +4976,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <f xml:space="preserve"> B6 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5162,7 +4990,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5183,16 +5011,16 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5232,7 +5060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5252,7 +5080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5272,7 +5100,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5292,7 +5120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5312,7 +5140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5332,7 +5160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5352,7 +5180,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5369,7 +5197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5386,7 +5214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5414,21 +5242,21 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <f>B2&gt;C2</f>
         <v>0</v>
@@ -5444,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>STDEV(B3:B7)</f>
         <v>3.5637059362410923</v>
@@ -5462,7 +5290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>B4+C4</f>
         <v>11</v>
@@ -5474,7 +5302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>B5+C5</f>
         <v>30</v>
@@ -5489,7 +5317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>B6/C6</f>
         <v>1</v>
@@ -5501,12 +5329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>B8+C8</f>
         <v>30</v>
@@ -5521,7 +5349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>B9+C9</f>
         <v>30</v>
@@ -5536,7 +5364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <f>B10&gt;C10</f>
         <v>1</v>
@@ -5551,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>B11+C11</f>
         <v>30</v>
@@ -5563,7 +5391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>B12+C12</f>
         <v>30</v>
@@ -5586,6 +5414,228 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f>B2 / 10</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f xml:space="preserve">  ROUNDUP(B2 / 100, 0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> B6 / 1000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f>B6 * 3.28084</f>
+        <v>3280.84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f>B6 * 39.3701</f>
+        <v>39370.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f xml:space="preserve"> B6 * 39.37</f>
+        <v>39370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <f>B11 / 10</f>
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C438D0-7759-4CC5-97B1-26C21A13DC4C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5593,9 +5643,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5603,7 +5653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5611,7 +5661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5619,7 +5669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5627,7 +5677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5635,7 +5685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5643,7 +5693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5651,7 +5701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5659,7 +5709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5667,7 +5717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5681,26 +5731,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="4" max="4" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A9" si="0">B2+C2</f>
         <v>300</v>
@@ -5715,7 +5765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5730,7 +5780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5745,7 +5795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5760,7 +5810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5775,7 +5825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5790,7 +5840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5805,7 +5855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -5820,7 +5870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f xml:space="preserve"> IF(B10="ok",C10,D10)</f>
         <v>100</v>
@@ -5838,7 +5888,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
@@ -5849,7 +5899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83D290E-9ED5-490F-8FA5-D7E745EE5395}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5857,12 +5907,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5870,7 +5920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5881,7 +5931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5889,7 +5939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5897,7 +5947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5905,7 +5955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5913,7 +5963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5921,7 +5971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5929,7 +5979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5937,7 +5987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5956,20 +6006,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B6745-E38C-48B8-BF02-AA99A147A5ED}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5980,7 +6030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5991,7 +6041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -6000,7 +6050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6009,7 +6059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6017,7 +6067,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6026,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -6038,7 +6088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -6050,13 +6100,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <f>B6 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6065,7 +6115,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -6074,7 +6124,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -6092,226 +6142,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.296875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <f>B2 / 10</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f xml:space="preserve">  ROUNDUP(B2 / 100, 0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <f xml:space="preserve"> B6 / 1000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <f>B6 * 3.28084</f>
-        <v>3280.84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <f>B6 * 39.3701</f>
-        <v>39370.1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <f xml:space="preserve"> B6 * 39.37</f>
-        <v>39370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <f>B11 / 10</f>
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>